--- a/reporte_top_10_go.xlsx
+++ b/reporte_top_10_go.xlsx
@@ -471,8 +471,8 @@
     <row r="1" ht="57" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>TOP 10 DE LOS TRAMITES MAS SOLICITADOS EN EL CONSULADO DE BOLIVIA EN ALEMANIA, FRANKFURT
-(FECHA: 12-01-2024, Horas: 18:22:41)</t>
+          <t>TOP 10 DE LOS TRAMITES MAS SOLICITADOS EN EL CONSULADO HONORARIO DE BOLIVIA EN ALEMANIA, FRANKFURT
+(FECHA: 03-02-2024, Horas: 17:44:06)</t>
         </is>
       </c>
     </row>
@@ -515,127 +515,127 @@
         </is>
       </c>
       <c r="B4" s="3" t="n">
-        <v>2830</v>
+        <v>8530</v>
       </c>
       <c r="C4" s="3" t="n">
-        <v>566</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Informe de Antecedentes Penales                                                                                                                                                                                                                           </t>
+          <t xml:space="preserve">Cert. Antecedentes Policiales                                                                                                                                                                                                                             </t>
         </is>
       </c>
       <c r="B5" s="3" t="n">
-        <v>11410</v>
+        <v>0</v>
       </c>
       <c r="C5" s="3" t="n">
-        <v>326</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>Traducción efectuada por la oficina consular de documentos simples como cartas, certificados y documentos de estudio para personas bolivianas</t>
+          <t>Partidas legalizadas de nacimiento, matrimonio o defunción (de libros o digitalizadas SIRENA)</t>
         </is>
       </c>
       <c r="B6" s="3" t="n">
-        <v>820</v>
+        <v>0</v>
       </c>
       <c r="C6" s="3" t="n">
-        <v>82</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>Primer Certificado de Nacimiento Gratuito (otorgado a menores, de 0 a 12 años conforme Ley 2616) (SERECI)</t>
+          <t>Trámite administrativo de corrección de partida de Nacimiento</t>
         </is>
       </c>
       <c r="B7" s="3" t="n">
         <v>0</v>
       </c>
       <c r="C7" s="3" t="n">
-        <v>40</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>Inscripción de fallecimiento en los Libros de Defunción, con derecho a un Certificado. (La transcripción de la inscripción a la Libreta de Familia es gratuita) (SERECI)</t>
+          <t>Certificación aclaratoria de nombres y apellidos</t>
         </is>
       </c>
       <c r="B8" s="3" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="C8" s="3" t="n">
-        <v>5</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>Trámite administrativo de corrección de partida de Nacimiento</t>
+          <t>Visas de Turismo, conforme a normativa vigente y reciprocidad</t>
         </is>
       </c>
       <c r="B9" s="3" t="n">
-        <v>0</v>
+        <v>2370</v>
       </c>
       <c r="C9" s="3" t="n">
-        <v>5</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
         <is>
-          <t>Certificado de “Libertad de Estado”</t>
+          <t>Registro de nacimiento de personas mayores de 18 años NACIDOS EN EL EXTRANJERO de madre boliviana o padre boliviano.</t>
         </is>
       </c>
       <c r="B10" s="3" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="C10" s="3" t="n">
-        <v>3</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
         <is>
-          <t>Traducción efectuada por la oficina consular de documentos simples como cartas, certificados y documentos de estudio para personas extranjeras</t>
+          <t>Certificado de Nacionalidad</t>
         </is>
       </c>
       <c r="B11" s="3" t="n">
-        <v>40</v>
+        <v>343</v>
       </c>
       <c r="C11" s="3" t="n">
-        <v>2</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
         <is>
-          <t>Registro de nacimiento de personas mayores de 18 años NACIDOS EN EL EXTRANJERO de madre boliviana o padre boliviano.</t>
+          <t>Duplicado de Certificado de Matrimonio (SERECI)</t>
         </is>
       </c>
       <c r="B12" s="3" t="n">
-        <v>40</v>
+        <v>430</v>
       </c>
       <c r="C12" s="3" t="n">
-        <v>2</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>Duplicado de Certificado de Matrimonio (SERECI)</t>
+          <t>Primer Certificado de Nacimiento Gratuito (otorgado a menores, de 0 a 12 años conforme Ley 2616) (SERECI)</t>
         </is>
       </c>
       <c r="B13" s="3" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C13" s="3" t="n">
-        <v>2</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14">
@@ -645,10 +645,10 @@
         </is>
       </c>
       <c r="B14" s="4" t="n">
-        <v>235</v>
+        <v>665</v>
       </c>
       <c r="C14" s="4" t="n">
-        <v>6</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B15" s="2" t="n">
-        <v>15445</v>
+        <v>13838</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>1039</v>
+        <v>4975</v>
       </c>
     </row>
   </sheetData>
